--- a/KM5c_data/DSDP_Site_607.xlsx
+++ b/KM5c_data/DSDP_Site_607.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,11 +483,6 @@
           <t>Uk37 Coretop comparison temperature</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>MgCa Temperature anomaly_Original - Coretop</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -554,13 +549,13 @@
         </is>
       </c>
       <c r="P2">
-        <v>17.86345383</v>
+        <v>17.76</v>
       </c>
       <c r="Q2">
-        <v>2.711546169999998</v>
+        <v>2.811264970567493</v>
       </c>
       <c r="R2">
-        <v>2.468863929999998</v>
+        <v>2.568582730567492</v>
       </c>
       <c r="S2">
         <v>3.484090909090909</v>
@@ -584,9 +579,6 @@
       </c>
       <c r="Y2">
         <v>17.09090909090909</v>
-      </c>
-      <c r="Z2">
-        <v>-4.122027273</v>
       </c>
     </row>
   </sheetData>
